--- a/biology/Histoire de la zoologie et de la botanique/Association_d'Histoire_Naturelle_de_Nuremberg/Association_d'Histoire_Naturelle_de_Nuremberg.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Association_d'Histoire_Naturelle_de_Nuremberg/Association_d'Histoire_Naturelle_de_Nuremberg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Association_d%27Histoire_Naturelle_de_Nuremberg</t>
+          <t>Association_d'Histoire_Naturelle_de_Nuremberg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Société d'Histoire Naturelle de Nuremberg (en allemand Naturhistorische Gesellschaft Nürnberg) est une association allemande fondée en 1801 et consacrée à l'histoire naturelle. Elle est actuellement composée d'environ 2 000 membres et elle est l'une des plus grandes associations de scientifiques bénévoles en Allemagne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Association_d%27Histoire_Naturelle_de_Nuremberg</t>
+          <t>Association_d'Histoire_Naturelle_de_Nuremberg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description générale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'objectif de l'association est la diffusion des sciences naturelles, archéologiques, préhistoriques et ethnologiques ainsi que les connaissances culturelles et la promotion de la protection de la nature et des monuments historiques de Nuremberg et de la région.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Association_d%27Histoire_Naturelle_de_Nuremberg</t>
+          <t>Association_d'Histoire_Naturelle_de_Nuremberg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Départements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Archéologie de l'étranger
 Botanique
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Association_d%27Histoire_Naturelle_de_Nuremberg</t>
+          <t>Association_d'Histoire_Naturelle_de_Nuremberg</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Musée d'histoire naturelle de Nuremberg</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1881 la Société d'Histoire Naturelle de Nuremberg vote la création d'un musée et d'une bibliothèque. Le « musée d'histoire naturelle de Nuremberg » ouvre finalement ses portes et est inauguré en décembre 1884.
 L'exposition permanente du musée comprend les domaines suivants:
@@ -604,7 +622,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Association_d%27Histoire_Naturelle_de_Nuremberg</t>
+          <t>Association_d'Histoire_Naturelle_de_Nuremberg</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -622,7 +640,9 @@
           <t>Liens</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">D'histoire naturelle, Société de Nuremberg e. V.
 Musée D'Histoire Naturelle De Nuremberg
